--- a/Excel/RS SP500/RS SP500 data modified.xlsx
+++ b/Excel/RS SP500/RS SP500 data modified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/achyaz001_myuct_ac_za/Documents/HONS PROJECT/R CODE &amp; DATA/SP500 - SHILLER &amp; BLOOMBERG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseed\Documents\GitHub\rcode\honours-project\Excel\RS SP500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="831" documentId="14_{B6908C9A-B56D-4179-A571-736651842D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC1CE6B0-B5A7-4A5E-9A73-1CF09FFED061}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBAE76F-2533-4A4A-A480-3D1E51301DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9990" yWindow="2610" windowWidth="4845" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -157,7 +157,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1434" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E1463" sqref="E1463"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D1813" sqref="A74:D1813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39390,6 +39390,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E3852A6BA6199E4A8883AB9D2DFD1AEB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ea6d121bab164a4e6f49fc4c62fc576">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c247b397-3abb-4843-9d06-059e63be1e55" xmlns:ns4="676b2bf2-ba15-4e71-a2b7-eb057b5b0307" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8649377d1957a994756bb9abefaf6cf7" ns3:_="" ns4:_="">
     <xsd:import namespace="c247b397-3abb-4843-9d06-059e63be1e55"/>
@@ -39606,12 +39612,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -39622,6 +39622,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F270598A-7791-4D09-B8A0-FD1E72B1DDE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEB0786D-4F1A-4129-9188-110EDF86EA0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39640,15 +39649,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F270598A-7791-4D09-B8A0-FD1E72B1DDE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77FA8210-A2BD-408F-8594-D85CE0EF8AD2}">
   <ds:schemaRefs>
